--- a/results/11-2024/beta/contributions-11-2024.xlsx
+++ b/results/11-2024/beta/contributions-11-2024.xlsx
@@ -23200,7 +23200,7 @@
         <v>0.0266376527291223</v>
       </c>
       <c r="H219" t="n">
-        <v>0.315104357652607</v>
+        <v>0.362008854544094</v>
       </c>
       <c r="I219" t="n">
         <v>0.109167237173735</v>
@@ -23263,19 +23263,19 @@
         <v>0.0115644173887208</v>
       </c>
       <c r="AC219" t="n">
-        <v>0.450934968794792</v>
+        <v>0.497839465686278</v>
       </c>
       <c r="AD219" t="n">
         <v>-0.501240345217913</v>
       </c>
       <c r="AE219" t="n">
-        <v>-0.0503053764231209</v>
+        <v>-0.00340087953163426</v>
       </c>
       <c r="AF219" t="n">
-        <v>0.114610532695747</v>
+        <v>0.161515029587234</v>
       </c>
       <c r="AG219" t="n">
-        <v>-0.0284529377723018</v>
+        <v>-0.0167268135494302</v>
       </c>
     </row>
     <row r="220">
@@ -23289,94 +23289,94 @@
         <v>-1</v>
       </c>
       <c r="D220" t="n">
-        <v>0.467573867495497</v>
+        <v>0.419225746635354</v>
       </c>
       <c r="E220" t="n">
-        <v>0.218428971776907</v>
+        <v>0.230711627914459</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.0133112440839578</v>
+        <v>-0.0140986068516979</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0238761071857274</v>
+        <v>0.0585228857274522</v>
       </c>
       <c r="H220" t="n">
-        <v>0.267458455199754</v>
+        <v>0.330025295140479</v>
       </c>
       <c r="I220" t="n">
-        <v>-0.0521226750119341</v>
+        <v>-0.0601999371651396</v>
       </c>
       <c r="J220" t="n">
-        <v>-0.0532038642008015</v>
+        <v>-0.0429672896520517</v>
       </c>
       <c r="K220" t="n">
-        <v>-0.0886535366480534</v>
+        <v>-0.0886151286728309</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.0107450977989587</v>
+        <v>-0.0129968948683667</v>
       </c>
       <c r="M220" t="n">
-        <v>0.198280978825438</v>
+        <v>0.200362369109564</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0247260510021219</v>
+        <v>0.0372193555665534</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
       </c>
       <c r="P220" t="n">
-        <v>-0.096271924117175</v>
+        <v>-0.0962596187355169</v>
       </c>
       <c r="Q220" t="n">
-        <v>-0.000321387780521931</v>
+        <v>-0.00032137204372118</v>
       </c>
       <c r="R220" t="n">
-        <v>0.00783343367589673</v>
+        <v>0.00784710211825246</v>
       </c>
       <c r="S220" t="n">
-        <v>-0.292299659391171</v>
+        <v>-0.292256819550185</v>
       </c>
       <c r="T220" t="n">
-        <v>-0.0640343791044717</v>
+        <v>-0.0640285156684017</v>
       </c>
       <c r="U220" t="n">
-        <v>-0.0326368710859559</v>
+        <v>-0.0326320681664161</v>
       </c>
       <c r="V220" t="n">
-        <v>-0.0421853173446674</v>
+        <v>-0.0421811246156367</v>
       </c>
       <c r="W220" t="n">
-        <v>-0.0535010837968142</v>
+        <v>-0.0534957093655697</v>
       </c>
       <c r="X220" t="n">
-        <v>-0.0000371337162574648</v>
+        <v>-0.0000369536423128203</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.205435554781985</v>
+        <v>0.206105936914347</v>
       </c>
       <c r="Z220" t="n">
-        <v>0.0232792983305474</v>
+        <v>-0.0401886586613109</v>
       </c>
       <c r="AA220" t="n">
-        <v>0.672691595188446</v>
+        <v>0.635838767698116</v>
       </c>
       <c r="AB220" t="n">
-        <v>-0.181241620507222</v>
+        <v>-0.158090135335309</v>
       </c>
       <c r="AC220" t="n">
-        <v>0.0627332815400061</v>
+        <v>0.12524604478209</v>
       </c>
       <c r="AD220" t="n">
-        <v>-0.121732439721045</v>
+        <v>-0.169866076740355</v>
       </c>
       <c r="AE220" t="n">
-        <v>-0.058999158181039</v>
+        <v>-0.0446200319582646</v>
       </c>
       <c r="AF220" t="n">
-        <v>0.432450816500185</v>
+        <v>0.433128600404542</v>
       </c>
       <c r="AG220" t="n">
-        <v>0.0440050165906293</v>
+        <v>0.0559005867895902</v>
       </c>
     </row>
     <row r="221">
@@ -23390,94 +23390,94 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.4114727698878</v>
+        <v>-0.411401896503494</v>
       </c>
       <c r="E221" t="n">
-        <v>0.000360595272752562</v>
+        <v>0.000360541221966493</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00995963091861007</v>
+        <v>0.00995813798532197</v>
       </c>
       <c r="G221" t="n">
-        <v>-0.0844706143537932</v>
+        <v>-0.0844015134548015</v>
       </c>
       <c r="H221" t="n">
-        <v>0.24768569587923</v>
+        <v>0.319751299210602</v>
       </c>
       <c r="I221" t="n">
-        <v>-0.0288627646831463</v>
+        <v>-0.035224164235792</v>
       </c>
       <c r="J221" t="n">
-        <v>-0.0474868333190326</v>
+        <v>-0.0360212570445717</v>
       </c>
       <c r="K221" t="n">
-        <v>-0.127452398628347</v>
+        <v>-0.127970986681403</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0122916704594633</v>
+        <v>0.0118527269783009</v>
       </c>
       <c r="M221" t="n">
-        <v>0.167741986743453</v>
+        <v>0.156144183636253</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0346927934960384</v>
+        <v>0.0332761620756461</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
       </c>
       <c r="P221" t="n">
-        <v>-0.0956775181464531</v>
+        <v>-0.0958023126568452</v>
       </c>
       <c r="Q221" t="n">
-        <v>-0.000165217824665831</v>
+        <v>-0.000165273978303127</v>
       </c>
       <c r="R221" t="n">
-        <v>0.0030018590844838</v>
+        <v>0.00279075296929499</v>
       </c>
       <c r="S221" t="n">
-        <v>-0.139709918851527</v>
+        <v>-0.140194997446763</v>
       </c>
       <c r="T221" t="n">
-        <v>-0.0276474354009237</v>
+        <v>-0.0277007174737331</v>
       </c>
       <c r="U221" t="n">
-        <v>-0.0211774370925011</v>
+        <v>-0.0212309831699842</v>
       </c>
       <c r="V221" t="n">
-        <v>-0.0252791100798122</v>
+        <v>-0.025318139101882</v>
       </c>
       <c r="W221" t="n">
-        <v>-0.0292131241614979</v>
+        <v>-0.029263916565192</v>
       </c>
       <c r="X221" t="n">
-        <v>-0.000515959409119748</v>
+        <v>-0.000518588790288099</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.14566849947566</v>
+        <v>0.133001838954394</v>
       </c>
       <c r="Z221" t="n">
-        <v>0.141240444805635</v>
+        <v>0.0755943018962091</v>
       </c>
       <c r="AA221" t="n">
-        <v>-0.401152543696437</v>
+        <v>-0.401083217296205</v>
       </c>
       <c r="AB221" t="n">
-        <v>-0.0947908405451559</v>
+        <v>-0.09472019266209</v>
       </c>
       <c r="AC221" t="n">
-        <v>0.0561753697081668</v>
+        <v>0.132387618227137</v>
       </c>
       <c r="AD221" t="n">
-        <v>0.152959862638768</v>
+        <v>0.0606123103488065</v>
       </c>
       <c r="AE221" t="n">
-        <v>0.209135232346935</v>
+        <v>0.192999928575943</v>
       </c>
       <c r="AF221" t="n">
-        <v>-0.286808151894657</v>
+        <v>-0.302803481382352</v>
       </c>
       <c r="AG221" t="n">
-        <v>0.072966555157631</v>
+        <v>0.0808632929846682</v>
       </c>
     </row>
     <row r="222">
@@ -23491,94 +23491,94 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0232674812404854</v>
+        <v>0.0232590087916096</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.292083866309056</v>
+        <v>-0.292040133028304</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.0120234862043267</v>
+        <v>-0.0120216840508558</v>
       </c>
       <c r="G222" t="n">
-        <v>-0.107104254287715</v>
+        <v>-0.107016645455171</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.0731835403209535</v>
+        <v>-0.0274345572564005</v>
       </c>
       <c r="I222" t="n">
-        <v>-0.0384809509837991</v>
+        <v>-0.0507264552727316</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.0405154494512949</v>
+        <v>-0.0302200379350692</v>
       </c>
       <c r="K222" t="n">
-        <v>0.0274347091489435</v>
+        <v>0.0274305964588883</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0129372319497278</v>
+        <v>0.0120656187584833</v>
       </c>
       <c r="M222" t="n">
-        <v>0.00113155149170652</v>
+        <v>0.00236634150778681</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0311282774700272</v>
+        <v>0.030995876313189</v>
       </c>
       <c r="O222" t="n">
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>-0.0938495976444909</v>
+        <v>-0.0938355352118614</v>
       </c>
       <c r="Q222" t="n">
         <v>0</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.00011066820707617</v>
+        <v>-0.000110651618712154</v>
       </c>
       <c r="S222" t="n">
-        <v>-0.0733403002059485</v>
+        <v>-0.0733293100424137</v>
       </c>
       <c r="T222" t="n">
-        <v>-0.0271324871187972</v>
+        <v>-0.027128420566469</v>
       </c>
       <c r="U222" t="n">
-        <v>-0.0142768232056056</v>
+        <v>-0.0142746833262986</v>
       </c>
       <c r="V222" t="n">
-        <v>-0.0101390502039833</v>
+        <v>-0.0101375304905282</v>
       </c>
       <c r="W222" t="n">
-        <v>-0.0290917234372134</v>
+        <v>-0.0290873632712518</v>
       </c>
       <c r="X222" t="n">
-        <v>-0.000674616292006824</v>
+        <v>-0.000674515172072176</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.120644911095757</v>
+        <v>0.115535191721761</v>
       </c>
       <c r="Z222" t="n">
-        <v>0.0122946385031186</v>
+        <v>-0.0516364436723316</v>
       </c>
       <c r="AA222" t="n">
-        <v>-0.280839871272898</v>
+        <v>-0.28080280828755</v>
       </c>
       <c r="AB222" t="n">
-        <v>0.197003098225668</v>
+        <v>0.197045171623988</v>
       </c>
       <c r="AC222" t="n">
-        <v>-0.111807999657376</v>
+        <v>-0.0688848352468296</v>
       </c>
       <c r="AD222" t="n">
-        <v>-0.0834158877545121</v>
+        <v>-0.151317043829202</v>
       </c>
       <c r="AE222" t="n">
-        <v>-0.195223887411888</v>
+        <v>-0.220201879076032</v>
       </c>
       <c r="AF222" t="n">
-        <v>-0.279060660459118</v>
+        <v>-0.303959515739594</v>
       </c>
       <c r="AG222" t="n">
-        <v>-0.0047018657894603</v>
+        <v>-0.00302984178254184</v>
       </c>
     </row>
     <row r="223">
@@ -23592,94 +23592,94 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0354202422828465</v>
+        <v>0.0354073440299585</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.124067577281894</v>
+        <v>-0.124048989093273</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.0662086657606142</v>
+        <v>-0.0661987440186307</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.105605638325157</v>
+        <v>-0.10551925484058</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.0680937692253858</v>
+        <v>-0.0301300754952938</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.0384354792973274</v>
+        <v>-0.0463324527577247</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.0274628530444909</v>
+        <v>-0.0171729719343539</v>
       </c>
       <c r="K223" t="n">
-        <v>0.182494279415479</v>
+        <v>0.182466906122714</v>
       </c>
       <c r="L223" t="n">
-        <v>0.00622281205928665</v>
+        <v>0.00536233970425126</v>
       </c>
       <c r="M223" t="n">
-        <v>-0.0536561175189298</v>
+        <v>-0.052439222960543</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0297375845395687</v>
+        <v>0.0296068589325627</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
       </c>
       <c r="P223" t="n">
-        <v>-0.0919395403683465</v>
+        <v>-0.0919257640401017</v>
       </c>
       <c r="Q223" t="n">
         <v>0</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.00169879830952402</v>
+        <v>-0.00169854367338962</v>
       </c>
       <c r="S223" t="n">
-        <v>-0.108362441108401</v>
+        <v>-0.108346204954524</v>
       </c>
       <c r="T223" t="n">
-        <v>-0.0258874223016736</v>
+        <v>-0.0258835423385673</v>
       </c>
       <c r="U223" t="n">
-        <v>-0.0130320184970945</v>
+        <v>-0.0130300651860371</v>
       </c>
       <c r="V223" t="n">
-        <v>-0.00968948354739263</v>
+        <v>-0.0096880312157932</v>
       </c>
       <c r="W223" t="n">
-        <v>-0.0229848308119784</v>
+        <v>-0.0229813858468764</v>
       </c>
       <c r="X223" t="n">
-        <v>-0.00137351962200549</v>
+        <v>-0.00137331374228111</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.0866087690721384</v>
+        <v>0.0789833323477707</v>
       </c>
       <c r="Z223" t="n">
-        <v>-0.0153198719651582</v>
+        <v>-0.0793517029122781</v>
       </c>
       <c r="AA223" t="n">
-        <v>-0.154856000759662</v>
+        <v>-0.154840389081945</v>
       </c>
       <c r="AB223" t="n">
-        <v>0.0846706047173518</v>
+        <v>0.0847284782713231</v>
       </c>
       <c r="AC223" t="n">
-        <v>0.0547249899075619</v>
+        <v>0.0941937456395925</v>
       </c>
       <c r="AD223" t="n">
-        <v>-0.227597690438797</v>
+        <v>-0.298127585590058</v>
       </c>
       <c r="AE223" t="n">
-        <v>-0.172872700531235</v>
+        <v>-0.203933839950465</v>
       </c>
       <c r="AF223" t="n">
-        <v>-0.243058096573545</v>
+        <v>-0.274045750761087</v>
       </c>
       <c r="AG223" t="n">
-        <v>-0.0941190231067833</v>
+        <v>-0.111920036869622</v>
       </c>
     </row>
     <row r="224">
@@ -23693,94 +23693,94 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0403713944990614</v>
+        <v>0.0403566930152532</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.0265151986773349</v>
+        <v>-0.0265112246335186</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.011034607726812</v>
+        <v>-0.0110329537863385</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.118756661711528</v>
+        <v>-0.118659525722931</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.0248964917630823</v>
+        <v>0.0120951524868573</v>
       </c>
       <c r="I224" t="n">
-        <v>-0.0231859737060969</v>
+        <v>-0.0310071985694216</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.0379222713728478</v>
+        <v>-0.0276372157623883</v>
       </c>
       <c r="K224" t="n">
-        <v>0.181835610670866</v>
+        <v>0.18180833624255</v>
       </c>
       <c r="L224" t="n">
-        <v>0.00644371453091264</v>
+        <v>0.00559637025914217</v>
       </c>
       <c r="M224" t="n">
-        <v>-0.0846979621892396</v>
+        <v>-0.084691020726535</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0228107240193287</v>
+        <v>0.010784388369256</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
       </c>
       <c r="P224" t="n">
-        <v>-0.000968222455477452</v>
+        <v>-0.000968077326402028</v>
       </c>
       <c r="Q224" t="n">
         <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.00348490257542355</v>
+        <v>-0.00348438022020892</v>
       </c>
       <c r="S224" t="n">
-        <v>-0.0855114513575783</v>
+        <v>-0.0854986379125289</v>
       </c>
       <c r="T224" t="n">
-        <v>-0.0253589332323112</v>
+        <v>-0.0253551324706947</v>
       </c>
       <c r="U224" t="n">
-        <v>-0.0132956457841282</v>
+        <v>-0.0132936529611105</v>
       </c>
       <c r="V224" t="n">
-        <v>-0.00822219974269123</v>
+        <v>-0.00822096733165134</v>
       </c>
       <c r="W224" t="n">
-        <v>0.000195823656223837</v>
+        <v>0.000195794303659014</v>
       </c>
       <c r="X224" t="n">
-        <v>-0.000384823756149899</v>
+        <v>-0.000384766073879828</v>
       </c>
       <c r="Y224" t="n">
-        <v>0.0273607305813384</v>
+        <v>0.017290409408699</v>
       </c>
       <c r="Z224" t="n">
-        <v>-0.0173127244345928</v>
+        <v>-0.0204873549692786</v>
       </c>
       <c r="AA224" t="n">
-        <v>0.00282158809491451</v>
+        <v>0.00281251459539611</v>
       </c>
       <c r="AB224" t="n">
-        <v>-0.0812068553073808</v>
+        <v>-0.0811153473030735</v>
       </c>
       <c r="AC224" t="n">
-        <v>0.102274588359752</v>
+        <v>0.14085544465674</v>
       </c>
       <c r="AD224" t="n">
-        <v>-0.188869587270701</v>
+        <v>-0.214113397910676</v>
       </c>
       <c r="AE224" t="n">
-        <v>-0.0865949989109494</v>
+        <v>-0.0732579532539357</v>
       </c>
       <c r="AF224" t="n">
-        <v>-0.164980266123416</v>
+        <v>-0.151560785961613</v>
       </c>
       <c r="AG224" t="n">
-        <v>-0.243476793762683</v>
+        <v>-0.258092383461161</v>
       </c>
     </row>
     <row r="225">
@@ -23794,94 +23794,94 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.091718261776752</v>
+        <v>-0.0916848785645019</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.0769043357876087</v>
+        <v>-0.076892811701712</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.0108857316522881</v>
+        <v>-0.010884100025399</v>
       </c>
       <c r="G225" t="n">
-        <v>-0.120093888331707</v>
+        <v>-0.119995659062977</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.0220910334672753</v>
+        <v>0.0144042099871511</v>
       </c>
       <c r="I225" t="n">
-        <v>-0.0190986738077825</v>
+        <v>-0.0268557497201449</v>
       </c>
       <c r="J225" t="n">
-        <v>-0.0345609683480519</v>
+        <v>-0.0245102555433641</v>
       </c>
       <c r="K225" t="n">
-        <v>0.0714643137102566</v>
+        <v>0.0714535988503462</v>
       </c>
       <c r="L225" t="n">
-        <v>0.00760943782298629</v>
+        <v>0.00677851071282376</v>
       </c>
       <c r="M225" t="n">
-        <v>-0.134634420766488</v>
+        <v>-0.134619764795008</v>
       </c>
       <c r="N225" t="n">
-        <v>0.011480431211397</v>
+        <v>0.0114787103026481</v>
       </c>
       <c r="O225" t="n">
         <v>0</v>
       </c>
       <c r="P225" t="n">
-        <v>-0.000948534702882586</v>
+        <v>-0.000948392524779962</v>
       </c>
       <c r="Q225" t="n">
         <v>0</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.00408453659878072</v>
+        <v>-0.00408392436528349</v>
       </c>
       <c r="S225" t="n">
-        <v>-0.048203058418983</v>
+        <v>-0.0481958344307865</v>
       </c>
       <c r="T225" t="n">
-        <v>-0.00380197446391284</v>
+        <v>-0.00380140458319245</v>
       </c>
       <c r="U225" t="n">
-        <v>-0.0124925177121593</v>
+        <v>-0.0124906452606544</v>
       </c>
       <c r="V225" t="n">
-        <v>-0.00745622686768588</v>
+        <v>-0.00745510926377646</v>
       </c>
       <c r="W225" t="n">
-        <v>0.000142013714965472</v>
+        <v>0.000141992428148718</v>
       </c>
       <c r="X225" t="n">
-        <v>-0.000335727543465669</v>
+        <v>-0.000335677220331121</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.00112321464089682</v>
+        <v>-0.00906106310516464</v>
       </c>
       <c r="Z225" t="n">
-        <v>-0.0186841536548799</v>
+        <v>-0.021816422445653</v>
       </c>
       <c r="AA225" t="n">
-        <v>-0.179508329216649</v>
+        <v>-0.179461790291613</v>
       </c>
       <c r="AB225" t="n">
-        <v>-0.0323038208918103</v>
+        <v>-0.0322187473358659</v>
       </c>
       <c r="AC225" t="n">
-        <v>0.00332307591013326</v>
+        <v>0.041270314286812</v>
       </c>
       <c r="AD225" t="n">
-        <v>-0.217895491161979</v>
+        <v>-0.231187535263833</v>
       </c>
       <c r="AE225" t="n">
-        <v>-0.214572415251846</v>
+        <v>-0.189917220977021</v>
       </c>
       <c r="AF225" t="n">
-        <v>-0.426384565360305</v>
+        <v>-0.401597758604499</v>
       </c>
       <c r="AG225" t="n">
-        <v>-0.278370897129095</v>
+        <v>-0.282790952766698</v>
       </c>
     </row>
     <row r="226">
@@ -23895,94 +23895,94 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0743294928509997</v>
+        <v>-0.0743024369615819</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.0236060845937303</v>
+        <v>-0.0236025465234158</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.0107715784576579</v>
+        <v>-0.0107699639401604</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.107826748989659</v>
+        <v>-0.107738549412073</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.0406814072979822</v>
+        <v>-0.00367728614383278</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.0211855625594115</v>
+        <v>-0.0288726716616283</v>
       </c>
       <c r="J226" t="n">
-        <v>-0.0214618205513606</v>
+        <v>-0.011634823846618</v>
       </c>
       <c r="K226" t="n">
-        <v>0.309906715886221</v>
+        <v>0.309860209174584</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0062570977759302</v>
+        <v>0.00544644662658911</v>
       </c>
       <c r="M226" t="n">
-        <v>-0.125455917437833</v>
+        <v>-0.125441487417866</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0118411932485962</v>
+        <v>0.0118394182595072</v>
       </c>
       <c r="O226" t="n">
         <v>0</v>
       </c>
       <c r="P226" t="n">
-        <v>-0.000929972551255709</v>
+        <v>-0.000929833155471904</v>
       </c>
       <c r="Q226" t="n">
         <v>0</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.00379525392257829</v>
+        <v>-0.00379468504920766</v>
       </c>
       <c r="S226" t="n">
-        <v>-0.0162698822111618</v>
+        <v>-0.0162674436207655</v>
       </c>
       <c r="T226" t="n">
-        <v>-0.0026125782148112</v>
+        <v>-0.00261218661182783</v>
       </c>
       <c r="U226" t="n">
-        <v>-0.0139967531978979</v>
+        <v>-0.0139946552946468</v>
       </c>
       <c r="V226" t="n">
-        <v>-0.00688940191643228</v>
+        <v>-0.00688836927092984</v>
       </c>
       <c r="W226" t="n">
-        <v>-0.000137355020901619</v>
+        <v>-0.000137334432370739</v>
       </c>
       <c r="X226" t="n">
-        <v>-0.000329148836120119</v>
+        <v>-0.00032909949913007</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.024116023397891</v>
+        <v>0.0141126036252714</v>
       </c>
       <c r="Z226" t="n">
-        <v>-0.0135889398439226</v>
+        <v>-0.0169910765603354</v>
       </c>
       <c r="AA226" t="n">
-        <v>-0.108707155902388</v>
+        <v>-0.108674947425158</v>
       </c>
       <c r="AB226" t="n">
-        <v>-0.0734490859382708</v>
+        <v>-0.0733660389484969</v>
       </c>
       <c r="AC226" t="n">
-        <v>0.232835023253397</v>
+        <v>0.271121874149094</v>
       </c>
       <c r="AD226" t="n">
-        <v>-0.148047986506428</v>
+        <v>-0.161434149027773</v>
       </c>
       <c r="AE226" t="n">
-        <v>0.0847870367469694</v>
+        <v>0.109687725121321</v>
       </c>
       <c r="AF226" t="n">
-        <v>-0.0973692050936892</v>
+        <v>-0.0723532612523337</v>
       </c>
       <c r="AG226" t="n">
-        <v>-0.232948033287738</v>
+        <v>-0.224889389144883</v>
       </c>
     </row>
     <row r="227">
@@ -23996,37 +23996,37 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.0496828752189038</v>
+        <v>-0.0496647890108726</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.0594753097103773</v>
+        <v>-0.059466396774599</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.0106799760639098</v>
+        <v>-0.010678375275841</v>
       </c>
       <c r="G227" t="n">
-        <v>-0.115850837732656</v>
+        <v>-0.115756077504536</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.0287955194725797</v>
+        <v>-0.0137500843883087</v>
       </c>
       <c r="I227" t="n">
-        <v>-0.00312175086106814</v>
+        <v>-0.0107414112969328</v>
       </c>
       <c r="J227" t="n">
-        <v>-0.0225297380348377</v>
+        <v>-0.0129139978975013</v>
       </c>
       <c r="K227" t="n">
-        <v>0.245610151195508</v>
+        <v>0.245573302118873</v>
       </c>
       <c r="L227" t="n">
-        <v>0.00778910776011443</v>
+        <v>0.00699413080997857</v>
       </c>
       <c r="M227" t="n">
-        <v>-0.125605168762732</v>
+        <v>-0.12559070927306</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0121533049357803</v>
+        <v>0.0121514831591396</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -24038,52 +24038,52 @@
         <v>0</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.00383339186947884</v>
+        <v>-0.00383281727963647</v>
       </c>
       <c r="S227" t="n">
-        <v>-0.0122910873627813</v>
+        <v>-0.0122892451014711</v>
       </c>
       <c r="T227" t="n">
-        <v>-0.00219448198989225</v>
+        <v>-0.0021941530554126</v>
       </c>
       <c r="U227" t="n">
-        <v>-0.00963066337509311</v>
+        <v>-0.00962921985956378</v>
       </c>
       <c r="V227" t="n">
-        <v>-0.00632980707384601</v>
+        <v>-0.00632885830350594</v>
       </c>
       <c r="W227" t="n">
-        <v>-0.000172255369412788</v>
+        <v>-0.000172229549610936</v>
       </c>
       <c r="X227" t="n">
-        <v>-0.000323010465996809</v>
+        <v>-0.000322962049070785</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.0425143841462861</v>
+        <v>0.0325718993795521</v>
       </c>
       <c r="Z227" t="n">
-        <v>-0.0105189084696478</v>
+        <v>-0.0141040554787808</v>
       </c>
       <c r="AA227" t="n">
-        <v>-0.119838160993191</v>
+        <v>-0.119809561061313</v>
       </c>
       <c r="AB227" t="n">
-        <v>-0.0456955519583691</v>
+        <v>-0.0456113054540963</v>
       </c>
       <c r="AC227" t="n">
-        <v>0.198952250587137</v>
+        <v>0.215161939346109</v>
       </c>
       <c r="AD227" t="n">
-        <v>-0.116231085656815</v>
+        <v>-0.129740867411421</v>
       </c>
       <c r="AE227" t="n">
-        <v>0.0827211649303217</v>
+        <v>0.0854210719346882</v>
       </c>
       <c r="AF227" t="n">
-        <v>-0.0828125480212383</v>
+        <v>-0.0799997945807207</v>
       </c>
       <c r="AG227" t="n">
-        <v>-0.192886646149661</v>
+        <v>-0.176377900099791</v>
       </c>
     </row>
     <row r="228">
@@ -24097,37 +24097,37 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.0728851762381022</v>
+        <v>-0.0728586459352587</v>
       </c>
       <c r="E228" t="n">
-        <v>-0.0105414891276689</v>
+        <v>-0.0105399090961744</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.0106487156767199</v>
+        <v>-0.0106471195740254</v>
       </c>
       <c r="G228" t="n">
-        <v>-0.117499901983276</v>
+        <v>-0.117403793497262</v>
       </c>
       <c r="H228" t="n">
-        <v>0.0298703559246993</v>
+        <v>0.0361373199192716</v>
       </c>
       <c r="I228" t="n">
-        <v>0.00880821231779017</v>
+        <v>0.00469621799861208</v>
       </c>
       <c r="J228" t="n">
-        <v>-0.011919868923671</v>
+        <v>-0.00251217700116824</v>
       </c>
       <c r="K228" t="n">
-        <v>0.0765313118624045</v>
+        <v>0.0765198370744846</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0089606076296489</v>
+        <v>0.00817815837026448</v>
       </c>
       <c r="M228" t="n">
-        <v>-0.120900814347835</v>
+        <v>-0.12088707414748</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0124509768455905</v>
+        <v>0.0124491104459334</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -24139,52 +24139,52 @@
         <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.00417762115088038</v>
+        <v>-0.00417699496509938</v>
       </c>
       <c r="S228" t="n">
-        <v>-0.0692568362894774</v>
+        <v>-0.069246457880634</v>
       </c>
       <c r="T228" t="n">
-        <v>-0.00278352365088441</v>
+        <v>-0.00278310642490842</v>
       </c>
       <c r="U228" t="n">
-        <v>-0.00659761792937141</v>
+        <v>-0.0065966290180075</v>
       </c>
       <c r="V228" t="n">
-        <v>-0.00567382329228483</v>
+        <v>-0.00567297284473911</v>
       </c>
       <c r="W228" t="n">
-        <v>-0.00714193590029</v>
+        <v>-0.00714086540372083</v>
       </c>
       <c r="X228" t="n">
-        <v>-0.000317002042049541</v>
+        <v>-0.000316954525780844</v>
       </c>
       <c r="Y228" t="n">
-        <v>0.0607038067078847</v>
+        <v>0.0508053508597062</v>
       </c>
       <c r="Z228" t="n">
-        <v>-0.00751724249365981</v>
+        <v>-0.0112880574610008</v>
       </c>
       <c r="AA228" t="n">
-        <v>-0.094075381042491</v>
+        <v>-0.0940456746054585</v>
       </c>
       <c r="AB228" t="n">
-        <v>-0.0963096971788868</v>
+        <v>-0.0962167648270618</v>
       </c>
       <c r="AC228" t="n">
-        <v>0.112250618810872</v>
+        <v>0.123019356361465</v>
       </c>
       <c r="AD228" t="n">
-        <v>-0.151211633543258</v>
+        <v>-0.164854651365731</v>
       </c>
       <c r="AE228" t="n">
-        <v>-0.038961014732386</v>
+        <v>-0.0418352950042666</v>
       </c>
       <c r="AF228" t="n">
-        <v>-0.229346092953764</v>
+        <v>-0.232097734436787</v>
       </c>
       <c r="AG228" t="n">
-        <v>-0.208978102857248</v>
+        <v>-0.196512137218585</v>
       </c>
     </row>
     <row r="229">
@@ -24198,37 +24198,37 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>-23.276817072683</v>
+        <v>-23.2691643015021</v>
       </c>
       <c r="E229" t="n">
-        <v>-5.69987135799386</v>
+        <v>-5.69903569508964</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.957045584881233</v>
+        <v>-0.956902647413715</v>
       </c>
       <c r="G229" t="n">
-        <v>-36.5105632022555</v>
+        <v>-36.4855645613968</v>
       </c>
       <c r="H229" t="n">
-        <v>7.68770548725368</v>
+        <v>7.60352774250399</v>
       </c>
       <c r="I229" t="n">
-        <v>4.17970750695513</v>
+        <v>4.19580630545502</v>
       </c>
       <c r="J229" t="n">
-        <v>0.22201597656446</v>
+        <v>0.221082607981526</v>
       </c>
       <c r="K229" t="n">
-        <v>-2.05908055322862</v>
+        <v>-2.05877431527295</v>
       </c>
       <c r="L229" t="n">
-        <v>0.078572749604322</v>
+        <v>0.0786494509467106</v>
       </c>
       <c r="M229" t="n">
-        <v>-6.36301470834929</v>
+        <v>-6.36325312872945</v>
       </c>
       <c r="N229" t="n">
-        <v>-0.702452814769539</v>
+        <v>-0.702347800242742</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -24240,52 +24240,52 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.0942214395959984</v>
+        <v>-0.0942073214662442</v>
       </c>
       <c r="S229" t="n">
-        <v>-0.0587685774880109</v>
+        <v>-0.0587597704393428</v>
       </c>
       <c r="T229" t="n">
-        <v>-0.000292361349807368</v>
+        <v>-0.000292317527006425</v>
       </c>
       <c r="U229" t="n">
-        <v>-0.00300414864849996</v>
+        <v>-0.0030036983531212</v>
       </c>
       <c r="V229" t="n">
-        <v>-0.00314482151128059</v>
+        <v>-0.00314435013053505</v>
       </c>
       <c r="W229" t="n">
-        <v>-0.00601959820781817</v>
+        <v>-0.00601869593335191</v>
       </c>
       <c r="X229" t="n">
-        <v>-0.000251367488846022</v>
+        <v>-0.000251329810652123</v>
       </c>
       <c r="Y229" t="n">
-        <v>-5.32613213197127</v>
+        <v>-5.3129221427908</v>
       </c>
       <c r="Z229" t="n">
-        <v>-0.907242079963821</v>
+        <v>-0.839460272046866</v>
       </c>
       <c r="AA229" t="n">
-        <v>-29.9337340155581</v>
+        <v>-29.9251026440055</v>
       </c>
       <c r="AB229" t="n">
-        <v>-29.8536462593804</v>
+        <v>-29.8296262188934</v>
       </c>
       <c r="AC229" t="n">
-        <v>10.108921167149</v>
+        <v>10.0402917916143</v>
       </c>
       <c r="AD229" t="n">
-        <v>-13.4645440493442</v>
+        <v>-13.3836608274701</v>
       </c>
       <c r="AE229" t="n">
-        <v>-3.35562288219521</v>
+        <v>-3.34336903585582</v>
       </c>
       <c r="AF229" t="n">
-        <v>-63.1430031571337</v>
+        <v>-63.0980978987547</v>
       </c>
       <c r="AG229" t="n">
-        <v>-15.8881327508006</v>
+        <v>-15.8706371722561</v>
       </c>
     </row>
     <row r="230">
@@ -24311,25 +24311,25 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>7.62634953918584</v>
+        <v>7.54284402030441</v>
       </c>
       <c r="I230" t="n">
-        <v>4.13929941241422</v>
+        <v>4.15526281248799</v>
       </c>
       <c r="J230" t="n">
-        <v>0.215966884594421</v>
+        <v>0.215044755117111</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0786105299909856</v>
+        <v>0.078686214048429</v>
       </c>
       <c r="M230" t="n">
-        <v>-6.36482324856151</v>
+        <v>-6.3650813209907</v>
       </c>
       <c r="N230" t="n">
-        <v>-0.699172698504258</v>
+        <v>-0.699068173048212</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -24341,31 +24341,31 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.079080195877923</v>
+        <v>-0.0790683458369412</v>
       </c>
       <c r="S230" t="n">
-        <v>-0.0535659095970531</v>
+        <v>-0.0535578820625715</v>
       </c>
       <c r="T230" t="n">
-        <v>-0.000286833218454685</v>
+        <v>-0.000286790224224287</v>
       </c>
       <c r="U230" t="n">
-        <v>-0.00133814981478908</v>
+        <v>-0.00133794923671271</v>
       </c>
       <c r="V230" t="n">
-        <v>-0.00177619714529786</v>
+        <v>-0.00177593090782135</v>
       </c>
       <c r="W230" t="n">
-        <v>-0.00558076567813703</v>
+        <v>-0.00557992917871175</v>
       </c>
       <c r="X230" t="n">
-        <v>-0.000246713502349838</v>
+        <v>-0.000246676521820088</v>
       </c>
       <c r="Y230" t="n">
-        <v>-5.29341288025946</v>
+        <v>-5.2779892305148</v>
       </c>
       <c r="Z230" t="n">
-        <v>-0.897295554322208</v>
+        <v>-0.829198562041145</v>
       </c>
       <c r="AA230" t="n">
         <v>0</v>
@@ -24374,19 +24374,19 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>12.0602263661855</v>
+        <v>11.9918378019579</v>
       </c>
       <c r="AD230" t="n">
-        <v>-13.3965791464814</v>
+        <v>-13.3131907905637</v>
       </c>
       <c r="AE230" t="n">
-        <v>-1.33635278029598</v>
+        <v>-1.32135298860572</v>
       </c>
       <c r="AF230" t="n">
-        <v>-1.33635278029598</v>
+        <v>-1.32135298860572</v>
       </c>
       <c r="AG230" t="n">
-        <v>-16.1978786446012</v>
+        <v>-16.1828871040945</v>
       </c>
     </row>
     <row r="231">
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>3.72855440258424</v>
+        <v>3.68826660473354</v>
       </c>
       <c r="I231" t="n">
-        <v>2.0397778425651</v>
+        <v>2.04755693363969</v>
       </c>
       <c r="J231" t="n">
-        <v>0.225877279936038</v>
+        <v>0.224967884767202</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0745186868238656</v>
+        <v>0.074593577335369</v>
       </c>
       <c r="M231" t="n">
-        <v>-6.26553981477278</v>
+        <v>-6.26579092412641</v>
       </c>
       <c r="N231" t="n">
-        <v>-0.696051335110404</v>
+        <v>-0.6959472750662</v>
       </c>
       <c r="O231" t="n">
         <v>0</v>
@@ -24442,31 +24442,31 @@
         <v>0</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.0731915019861251</v>
+        <v>-0.0731805341141367</v>
       </c>
       <c r="S231" t="n">
-        <v>-0.048583331612928</v>
+        <v>-0.0485760506451993</v>
       </c>
       <c r="T231" t="n">
-        <v>-0.000281485083919453</v>
+        <v>-0.000281442891358896</v>
       </c>
       <c r="U231" t="n">
-        <v>-0.00101350416361612</v>
+        <v>-0.00101335224713672</v>
       </c>
       <c r="V231" t="n">
-        <v>-0.00150016835891442</v>
+        <v>-0.00149994349563087</v>
       </c>
       <c r="W231" t="n">
-        <v>-0.00515520989193829</v>
+        <v>-0.00515443717772346</v>
       </c>
       <c r="X231" t="n">
-        <v>-0.000242147297890849</v>
+        <v>-0.00024211100179139</v>
       </c>
       <c r="Y231" t="n">
-        <v>-5.26191072770966</v>
+        <v>-5.2443043125002</v>
       </c>
       <c r="Z231" t="n">
-        <v>-0.88756949870864</v>
+        <v>-0.819156572167867</v>
       </c>
       <c r="AA231" t="n">
         <v>0</v>
@@ -24475,19 +24475,19 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>6.06872821190925</v>
+        <v>6.0353850004758</v>
       </c>
       <c r="AD231" t="n">
-        <v>-13.2410387246968</v>
+        <v>-13.1551469554337</v>
       </c>
       <c r="AE231" t="n">
-        <v>-7.17231051278757</v>
+        <v>-7.11976195495786</v>
       </c>
       <c r="AF231" t="n">
-        <v>-7.17231051278757</v>
+        <v>-7.11976195495786</v>
       </c>
       <c r="AG231" t="n">
-        <v>-17.9702531357928</v>
+        <v>-17.9428276441888</v>
       </c>
     </row>
     <row r="232">
@@ -24513,25 +24513,25 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>3.68441521741338</v>
+        <v>3.64463370511245</v>
       </c>
       <c r="I232" t="n">
-        <v>2.02115379695362</v>
+        <v>2.02887492471731</v>
       </c>
       <c r="J232" t="n">
-        <v>0.226804381763923</v>
+        <v>0.216692032603372</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.071521658741136</v>
+        <v>0.0735794765788444</v>
       </c>
       <c r="M232" t="n">
-        <v>-6.17379776375415</v>
+        <v>-6.17404141014444</v>
       </c>
       <c r="N232" t="n">
-        <v>-0.693198911893966</v>
+        <v>-0.693095277170808</v>
       </c>
       <c r="O232" t="n">
         <v>0</v>
@@ -24543,31 +24543,31 @@
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.0674683564506728</v>
+        <v>-0.0674582459847417</v>
       </c>
       <c r="S232" t="n">
-        <v>-0.0425068353612335</v>
+        <v>-0.0425004649057259</v>
       </c>
       <c r="T232" t="n">
-        <v>-0.000276274406230126</v>
+        <v>-0.000276232994733672</v>
       </c>
       <c r="U232" t="n">
-        <v>-0.000999047291727617</v>
+        <v>-0.000998897542237032</v>
       </c>
       <c r="V232" t="n">
-        <v>-0.00124129206759971</v>
+        <v>-0.00124110600767668</v>
       </c>
       <c r="W232" t="n">
-        <v>-0.00307069624864154</v>
+        <v>-0.00307023597848621</v>
       </c>
       <c r="X232" t="n">
-        <v>-0.00023772569720526</v>
+        <v>-0.000237690063864537</v>
       </c>
       <c r="Y232" t="n">
-        <v>-5.23243913238546</v>
+        <v>-5.21267631926218</v>
       </c>
       <c r="Z232" t="n">
-        <v>-0.878200141219398</v>
+        <v>-0.809459157383718</v>
       </c>
       <c r="AA232" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>6.00389505487207</v>
+        <v>5.96378013901198</v>
       </c>
       <c r="AD232" t="n">
-        <v>-13.0934361767763</v>
+        <v>-13.0050550374386</v>
       </c>
       <c r="AE232" t="n">
-        <v>-7.08954112190422</v>
+        <v>-7.04127489842663</v>
       </c>
       <c r="AF232" t="n">
-        <v>-7.08954112190422</v>
+        <v>-7.04127489842663</v>
       </c>
       <c r="AG232" t="n">
-        <v>-19.6853018930304</v>
+        <v>-19.6451219351862</v>
       </c>
     </row>
     <row r="233">
@@ -24614,19 +24614,19 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.64132953143839</v>
+        <v>3.60204239937088</v>
       </c>
       <c r="I233" t="n">
-        <v>2.00261825867176</v>
+        <v>2.01028398030245</v>
       </c>
       <c r="J233" t="n">
-        <v>0.226893961089969</v>
+        <v>0.216777614688168</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0707364992241333</v>
+        <v>0.0715981156203194</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -24644,25 +24644,25 @@
         <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.0401401587257211</v>
+        <v>-0.040134142908177</v>
       </c>
       <c r="S233" t="n">
-        <v>-0.042801883797039</v>
+        <v>-0.0427954691300192</v>
       </c>
       <c r="T233" t="n">
-        <v>0.000198412617646859</v>
+        <v>0.000198382876948067</v>
       </c>
       <c r="U233" t="n">
-        <v>-0.000994121942132775</v>
+        <v>-0.000993972930929399</v>
       </c>
       <c r="V233" t="n">
-        <v>-0.000241248597110388</v>
+        <v>-0.000241212435658777</v>
       </c>
       <c r="W233" t="n">
-        <v>-0.00170174061934203</v>
+        <v>-0.00170148554219374</v>
       </c>
       <c r="X233" t="n">
-        <v>-0.000079807959807443</v>
+        <v>-0.0000797959971543527</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>5.94157825042425</v>
+        <v>5.90070210998181</v>
       </c>
       <c r="AD233" t="n">
-        <v>-0.0857605490235058</v>
+        <v>-0.0857476960671844</v>
       </c>
       <c r="AE233" t="n">
-        <v>5.85581770140075</v>
+        <v>5.81495441391463</v>
       </c>
       <c r="AF233" t="n">
-        <v>5.85581770140075</v>
+        <v>5.81495441391463</v>
       </c>
       <c r="AG233" t="n">
-        <v>-2.43559667839676</v>
+        <v>-2.4168588570189</v>
       </c>
     </row>
     <row r="234">
@@ -24715,19 +24715,19 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3.63618073586425</v>
+        <v>3.5968989300081</v>
       </c>
       <c r="I234" t="n">
-        <v>1.98218858417079</v>
+        <v>1.98979305207376</v>
       </c>
       <c r="J234" t="n">
-        <v>0.227003803007952</v>
+        <v>0.216882555196651</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0.070062870034282</v>
+        <v>0.0709162790103246</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -24745,25 +24745,25 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.0221574078722031</v>
+        <v>-0.0221540869109083</v>
       </c>
       <c r="S234" t="n">
-        <v>-0.0415522314452188</v>
+        <v>-0.0415460040328886</v>
       </c>
       <c r="T234" t="n">
-        <v>0.000194836066547133</v>
+        <v>0.000194806861952834</v>
       </c>
       <c r="U234" t="n">
-        <v>-0.000998985041278377</v>
+        <v>-0.000998835301113665</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>-0.00167070455466822</v>
+        <v>-0.00167045412955424</v>
       </c>
       <c r="X234" t="n">
-        <v>-0.0000783582195795773</v>
+        <v>-0.0000783464742748485</v>
       </c>
       <c r="Y234" t="n">
         <v>0</v>
@@ -24778,19 +24778,19 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>5.91543599307727</v>
+        <v>5.87449081628884</v>
       </c>
       <c r="AD234" t="n">
-        <v>-0.066262851066401</v>
+        <v>-0.0662529199867867</v>
       </c>
       <c r="AE234" t="n">
-        <v>5.84917314201087</v>
+        <v>5.80823789630205</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.84917314201087</v>
+        <v>5.80823789630205</v>
       </c>
       <c r="AG234" t="n">
-        <v>-0.639215197820048</v>
+        <v>-0.634461135791956</v>
       </c>
     </row>
     <row r="235">
@@ -24816,19 +24816,19 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>3.5940163457955</v>
+        <v>3.55521925142914</v>
       </c>
       <c r="I235" t="n">
-        <v>1.96274563448411</v>
+        <v>1.97028703670374</v>
       </c>
       <c r="J235" t="n">
-        <v>0.227237496921728</v>
+        <v>0.217105821115604</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0694181150347584</v>
+        <v>0.0702636684295932</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -24846,25 +24846,25 @@
         <v>0</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.0217557388152767</v>
+        <v>-0.0217524780513623</v>
       </c>
       <c r="S235" t="n">
-        <v>-0.0388289758359139</v>
+        <v>-0.0388231564971364</v>
       </c>
       <c r="T235" t="n">
-        <v>0.000191369312241285</v>
+        <v>0.00019134062732018</v>
       </c>
       <c r="U235" t="n">
-        <v>-0.000589853269428176</v>
+        <v>-0.000589764854863617</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>-0.00131471680980821</v>
+        <v>-0.00131451974410002</v>
       </c>
       <c r="X235" t="n">
-        <v>-0.0000769397118460802</v>
+        <v>-0.000076928179171265</v>
       </c>
       <c r="Y235" t="n">
         <v>0</v>
@@ -24879,19 +24879,19 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>5.8534175922361</v>
+        <v>5.81287577767808</v>
       </c>
       <c r="AD235" t="n">
-        <v>-0.0623748551300318</v>
+        <v>-0.0623655066993134</v>
       </c>
       <c r="AE235" t="n">
-        <v>5.79104273710607</v>
+        <v>5.75051027097877</v>
       </c>
       <c r="AF235" t="n">
-        <v>5.79104273710607</v>
+        <v>5.75051027097877</v>
       </c>
       <c r="AG235" t="n">
-        <v>2.60162311465336</v>
+        <v>2.5831069206922</v>
       </c>
     </row>
     <row r="236">
@@ -24917,19 +24917,19 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>3.55132754670098</v>
+        <v>3.51302051459566</v>
       </c>
       <c r="I236" t="n">
-        <v>1.94318840245689</v>
+        <v>1.95066180398187</v>
       </c>
       <c r="J236" t="n">
-        <v>0.227397607441771</v>
+        <v>0.217258787101904</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0685328592979983</v>
+        <v>0.0693676269557297</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -24947,16 +24947,16 @@
         <v>0</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.0171168112138131</v>
+        <v>-0.0171142456906859</v>
       </c>
       <c r="S236" t="n">
-        <v>-0.0305839394865504</v>
+        <v>-0.0305793556981238</v>
       </c>
       <c r="T236" t="n">
-        <v>0.000187880966917575</v>
+        <v>0.000187852804867106</v>
       </c>
       <c r="U236" t="n">
-        <v>-0.000588132761836224</v>
+        <v>-0.000588044605143168</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="X236" t="n">
-        <v>-0.0000755201698732222</v>
+        <v>-0.0000755088499504453</v>
       </c>
       <c r="Y236" t="n">
         <v>0</v>
@@ -24980,19 +24980,19 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>5.79044641589763</v>
+        <v>5.75030873263516</v>
       </c>
       <c r="AD236" t="n">
-        <v>-0.0481765226651554</v>
+        <v>-0.0481693020390361</v>
       </c>
       <c r="AE236" t="n">
-        <v>5.74226989323248</v>
+        <v>5.70213943059612</v>
       </c>
       <c r="AF236" t="n">
-        <v>5.74226989323248</v>
+        <v>5.70213943059612</v>
       </c>
       <c r="AG236" t="n">
-        <v>5.80957586843754</v>
+        <v>5.76896050294789</v>
       </c>
     </row>
     <row r="237">
@@ -25024,13 +25024,13 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0.222690343737431</v>
+        <v>0.212761569923758</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0673104559444804</v>
+        <v>0.0681303302606961</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
@@ -25051,13 +25051,13 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>-0.0315511444970218</v>
+        <v>-0.0315464157652712</v>
       </c>
       <c r="T237" t="n">
-        <v>0.000434195212650756</v>
+        <v>0.000434130129733923</v>
       </c>
       <c r="U237" t="n">
-        <v>-0.000588646143750982</v>
+        <v>-0.000588557910097265</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>0.290000799681911</v>
+        <v>0.280891900184455</v>
       </c>
       <c r="AD237" t="n">
-        <v>-0.031705595428122</v>
+        <v>-0.0317008435456345</v>
       </c>
       <c r="AE237" t="n">
-        <v>0.258295204253789</v>
+        <v>0.24919105663882</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.258295204253789</v>
+        <v>0.24919105663882</v>
       </c>
       <c r="AG237" t="n">
-        <v>4.4101952441508</v>
+        <v>4.37751966362894</v>
       </c>
     </row>
     <row r="238">
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0.218028359499201</v>
+        <v>0.208307604808566</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0657825927966593</v>
+        <v>0.0665838523484785</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -25152,13 +25152,13 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>-0.0305168201112038</v>
+        <v>-0.0305122463811758</v>
       </c>
       <c r="T238" t="n">
         <v>0</v>
       </c>
       <c r="U238" t="n">
-        <v>-0.00049152910885919</v>
+        <v>-0.000491455432294341</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -25182,19 +25182,19 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>0.28381095229586</v>
+        <v>0.274891457157045</v>
       </c>
       <c r="AD238" t="n">
-        <v>-0.031008349220063</v>
+        <v>-0.0310037018134701</v>
       </c>
       <c r="AE238" t="n">
-        <v>0.252802603075797</v>
+        <v>0.243887755343575</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.252802603075797</v>
+        <v>0.243887755343575</v>
       </c>
       <c r="AG238" t="n">
-        <v>3.01110260941703</v>
+        <v>2.98643212838932</v>
       </c>
     </row>
     <row r="239">
@@ -25226,13 +25226,13 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>0.213427782466336</v>
+        <v>0.203912300107811</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0645094509448718</v>
+        <v>0.0652951993012962</v>
       </c>
       <c r="M239" t="n">
         <v>0</v>
@@ -25253,13 +25253,13 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>-0.0291147072979947</v>
+        <v>-0.0291103436876772</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
       </c>
       <c r="U239" t="n">
-        <v>-0.000388232043913028</v>
+        <v>-0.000388173850807139</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="AC239" t="n">
-        <v>0.277937233411207</v>
+        <v>0.269207499409108</v>
       </c>
       <c r="AD239" t="n">
-        <v>-0.0295029393419077</v>
+        <v>-0.0294985175384843</v>
       </c>
       <c r="AE239" t="n">
-        <v>0.2484342940693</v>
+        <v>0.239708981870623</v>
       </c>
       <c r="AF239" t="n">
-        <v>0.2484342940693</v>
+        <v>0.239708981870623</v>
       </c>
       <c r="AG239" t="n">
-        <v>1.62545049865784</v>
+        <v>1.60873180611228</v>
       </c>
     </row>
     <row r="240">
@@ -25327,13 +25327,13 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>0.208879478292956</v>
+        <v>0.199566929288997</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0634609189309243</v>
+        <v>0.0642338927156816</v>
       </c>
       <c r="M240" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>-0.00962008279206117</v>
+        <v>-0.0096186408623633</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
       </c>
       <c r="U240" t="n">
-        <v>-0.000287670385379357</v>
+        <v>-0.000287627265693757</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -25384,19 +25384,19 @@
         <v>0</v>
       </c>
       <c r="AC240" t="n">
-        <v>0.27234039722388</v>
+        <v>0.263800822004678</v>
       </c>
       <c r="AD240" t="n">
-        <v>-0.00990775317744053</v>
+        <v>-0.00990626812805706</v>
       </c>
       <c r="AE240" t="n">
-        <v>0.26243264404644</v>
+        <v>0.253894553876621</v>
       </c>
       <c r="AF240" t="n">
-        <v>0.26243264404644</v>
+        <v>0.253894553876621</v>
       </c>
       <c r="AG240" t="n">
-        <v>0.255491186361328</v>
+        <v>0.246670586932407</v>
       </c>
     </row>
     <row r="241">
@@ -25455,13 +25455,13 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>-0.00988248944842063</v>
+        <v>-0.00988100818869464</v>
       </c>
       <c r="T241" t="n">
         <v>0</v>
       </c>
       <c r="U241" t="n">
-        <v>-0.000189856033661062</v>
+        <v>-0.000189827575580725</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -25488,16 +25488,16 @@
         <v>0</v>
       </c>
       <c r="AD241" t="n">
-        <v>-0.0100723454820817</v>
+        <v>-0.0100708357642754</v>
       </c>
       <c r="AE241" t="n">
-        <v>-0.0100723454820817</v>
+        <v>-0.0100708357642754</v>
       </c>
       <c r="AF241" t="n">
-        <v>-0.0100723454820817</v>
+        <v>-0.0100708357642754</v>
       </c>
       <c r="AG241" t="n">
-        <v>0.18839929892736</v>
+        <v>0.181855113831633</v>
       </c>
     </row>
     <row r="242">
@@ -25556,13 +25556,13 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>-0.00947920853566764</v>
+        <v>-0.00947778772049102</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>-0.0000947426267217111</v>
+        <v>-0.000094728425470425</v>
       </c>
       <c r="V242" t="n">
         <v>0</v>
@@ -25589,16 +25589,16 @@
         <v>0</v>
       </c>
       <c r="AD242" t="n">
-        <v>-0.00957395116238935</v>
+        <v>-0.00957251614596144</v>
       </c>
       <c r="AE242" t="n">
-        <v>-0.00957395116238935</v>
+        <v>-0.00957251614596144</v>
       </c>
       <c r="AF242" t="n">
-        <v>-0.00957395116238935</v>
+        <v>-0.00957251614596144</v>
       </c>
       <c r="AG242" t="n">
-        <v>0.122805160367814</v>
+        <v>0.118490045959249</v>
       </c>
     </row>
     <row r="243">
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>-0.00930120550378666</v>
+        <v>-0.00929981136813529</v>
       </c>
       <c r="T243" t="n">
         <v>0</v>
@@ -25690,16 +25690,16 @@
         <v>0</v>
       </c>
       <c r="AD243" t="n">
-        <v>-0.00930120550378666</v>
+        <v>-0.00929981136813529</v>
       </c>
       <c r="AE243" t="n">
-        <v>-0.00930120550378666</v>
+        <v>-0.00929981136813529</v>
       </c>
       <c r="AF243" t="n">
-        <v>-0.00930120550378666</v>
+        <v>-0.00929981136813529</v>
       </c>
       <c r="AG243" t="n">
-        <v>0.0583712854745423</v>
+        <v>0.0562378476495597</v>
       </c>
     </row>
     <row r="244">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="AG244" t="n">
-        <v>-0.00723687553706764</v>
+        <v>-0.00723579081959558</v>
       </c>
     </row>
     <row r="245">
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AG245" t="n">
-        <v>-0.00471878916654722</v>
+        <v>-0.00471808187852674</v>
       </c>
     </row>
     <row r="246">
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AG246" t="n">
-        <v>-0.00232530137594988</v>
+        <v>-0.00232495284203638</v>
       </c>
     </row>
     <row r="247">
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="248">
@@ -26204,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="AG248" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="249">
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="250">
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="AG250" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="251">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="AG251" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="252">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="253">
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="AG253" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="254">
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="255">
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="AG255" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="256">
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="AG256" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="257">
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="AG257" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="258">
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="AG258" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="259">
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AG259" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
     <row r="260">
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
-        <v>-0.00000000000000321964677141295</v>
+        <v>-0.00000000000000255351295663786</v>
       </c>
     </row>
   </sheetData>
